--- a/src/main/resources/dynamic-template.xlsx
+++ b/src/main/resources/dynamic-template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69DAF6-701F-429B-9EC9-6E6313A15E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F4531C-C002-48E1-88E3-58387F5D3755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1440" windowWidth="13210" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>{{title}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>{{who}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{abc}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +119,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,13 +211,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -490,18 +523,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -516,24 +549,24 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -548,6 +581,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
